--- a/outputs/results/cv/CircR2Disease_results.xlsx
+++ b/outputs/results/cv/CircR2Disease_results.xlsx
@@ -394,19 +394,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9296875</v>
+        <v>0.91796875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9307692307692308</v>
+        <v>0.9219330855018587</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9453125</v>
+        <v>0.96875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.961669921875</v>
+        <v>0.975830078125</v>
       </c>
     </row>
     <row r="3">
@@ -417,19 +417,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9044117647058825</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9609375</v>
+        <v>0.9375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.950439453125</v>
+        <v>0.976043701171875</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9097744360902256</v>
+        <v>0.9147286821705427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8768115942028986</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9453125</v>
+        <v>0.921875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.96435546875</v>
+        <v>0.96856689453125</v>
       </c>
     </row>
     <row r="5">
@@ -463,19 +463,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9098039215686274</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9163636363636364</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9064748201438849</v>
       </c>
       <c r="F5" t="n">
         <v>0.984375</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9794537401574803</v>
+        <v>0.9864665354330709</v>
       </c>
     </row>
     <row r="6">
@@ -486,19 +486,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9416342412451363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9296875</v>
+        <v>0.9307692307692308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.937007874015748</v>
+        <v>0.952755905511811</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9806840551181103</v>
+        <v>0.9900344488188977</v>
       </c>
     </row>
     <row r="7">
@@ -512,27 +512,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.916 +- 0.014</t>
+          <t>0.9241 +- 0.014</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.919 +- 0.011</t>
+          <t>0.9262 +- 0.014</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.887 +- 0.031</t>
+          <t>0.9013 +- 0.019</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.955 +- 0.017</t>
+          <t>0.9531 +- 0.022</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.967 +- 0.011</t>
+          <t>0.9794 +- 0.008</t>
         </is>
       </c>
     </row>
